--- a/AutomationTest/PPJ rettigheder 2013.10.08.xlsx
+++ b/AutomationTest/PPJ rettigheder 2013.10.08.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="23812"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="24030"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="42940" windowHeight="20720" activeTab="1"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="34840" windowHeight="19740" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="2" r:id="rId1"/>
@@ -1220,7 +1220,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1297,8 +1297,8 @@
   </sheetPr>
   <dimension ref="A1:AA77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="I52" sqref="I52"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
